--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1836124.078342935</v>
+        <v>-1838843.479487181</v>
       </c>
     </row>
     <row r="7">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>46.33259708642542</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>101.0007595853909</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,25 +817,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.1327701367057</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>211.8979492262035</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>208.8990535094712</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>248.8986588917047</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>7.157477379435859</v>
+        <v>168.8032110970387</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>91.20789160965462</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>269.1814742921427</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>111.0323165027589</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>65.78540794126737</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1421,7 +1421,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>230.7818758741516</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>100.5140508960355</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>101.3999237630431</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>34.56584948763671</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>123.3988099269025</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>102.1557845699813</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>18.70843787977262</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>81.26578411089035</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,7 +2719,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
@@ -2728,10 +2728,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541853</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652614</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972044</v>
@@ -2773,7 +2773,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X28" t="n">
         <v>201.4250078969974</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,19 +2956,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308922</v>
       </c>
       <c r="G31" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652613</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3010,7 +3010,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,7 +3427,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>884.184933127857</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="C2" t="n">
-        <v>837.3843300102556</v>
+        <v>922.5193592425337</v>
       </c>
       <c r="D2" t="n">
-        <v>837.3843300102556</v>
+        <v>564.2536606357833</v>
       </c>
       <c r="E2" t="n">
-        <v>837.3843300102556</v>
+        <v>564.2536606357833</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>153.2677558461757</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.313418796629</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
         <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1644.250531453059</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1270.784773191979</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="Y2" t="n">
-        <v>1270.784773191979</v>
+        <v>1291.481876182945</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495377</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M3" t="n">
         <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1468.399656105703</v>
+        <v>1528.15405360694</v>
       </c>
       <c r="O3" t="n">
-        <v>1800.470091281865</v>
+        <v>1860.224488783102</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710445</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4446,10 +4446,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,49 +4462,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>937.3909343092793</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C4" t="n">
-        <v>768.4547513813724</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
-        <v>768.4547513813724</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>620.5416577989793</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>473.6517103010689</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4513,25 +4513,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1225.779039682638</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>971.0945514767509</v>
       </c>
       <c r="W4" t="n">
-        <v>1347.028950037536</v>
+        <v>681.6773814397902</v>
       </c>
       <c r="X4" t="n">
-        <v>1119.039399139519</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y4" t="n">
-        <v>1119.039399139519</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1201.12525314008</v>
+        <v>1571.558046306621</v>
       </c>
       <c r="C5" t="n">
-        <v>832.1627361996682</v>
+        <v>1202.59552936621</v>
       </c>
       <c r="D5" t="n">
-        <v>473.8970375929177</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E5" t="n">
-        <v>473.8970375929177</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.2467865680031</v>
@@ -4568,10 +4568,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4604,13 +4604,13 @@
         <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>2351.330183441093</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X5" t="n">
-        <v>1977.864425180013</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="Y5" t="n">
-        <v>1587.725093204202</v>
+        <v>1958.157886370743</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
@@ -4647,25 +4647,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143495</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>884.9085321458213</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701987</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,16 +4677,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>682.9724752679349</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C7" t="n">
-        <v>514.036292340028</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D7" t="n">
-        <v>514.036292340028</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576349</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
         <v>51.2467865680031</v>
@@ -4723,7 +4723,7 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4738,37 +4738,37 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="U7" t="n">
-        <v>1347.327782578335</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="V7" t="n">
-        <v>1092.643294372448</v>
+        <v>1082.549477544053</v>
       </c>
       <c r="W7" t="n">
-        <v>1092.643294372448</v>
+        <v>793.1323075070927</v>
       </c>
       <c r="X7" t="n">
-        <v>1085.413519241705</v>
+        <v>622.6240134696799</v>
       </c>
       <c r="Y7" t="n">
-        <v>864.6209400981746</v>
+        <v>401.8314343261497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1313.273607737845</v>
+        <v>1632.391467686597</v>
       </c>
       <c r="C8" t="n">
-        <v>944.3110907974335</v>
+        <v>1632.391467686597</v>
       </c>
       <c r="D8" t="n">
-        <v>944.3110907974335</v>
+        <v>1274.125769079847</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974335</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.313418796629</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V8" t="n">
-        <v>1703.412939713657</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="W8" t="n">
-        <v>1703.412939713657</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="X8" t="n">
-        <v>1703.412939713657</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="Y8" t="n">
-        <v>1313.273607737845</v>
+        <v>1632.391467686597</v>
       </c>
     </row>
     <row r="9">
@@ -4857,10 +4857,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
         <v>607.9167021542605</v>
@@ -4869,7 +4869,7 @@
         <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
@@ -4878,31 +4878,31 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1528.15405360694</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1860.224488783102</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4920,7 +4920,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
         <v>1307.279776881661</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>606.9425808380922</v>
+        <v>412.4997346596878</v>
       </c>
       <c r="C10" t="n">
-        <v>606.9425808380922</v>
+        <v>412.4997346596878</v>
       </c>
       <c r="D10" t="n">
-        <v>606.9425808380922</v>
+        <v>412.4997346596878</v>
       </c>
       <c r="E10" t="n">
-        <v>459.0294872556991</v>
+        <v>264.5866410772946</v>
       </c>
       <c r="F10" t="n">
-        <v>312.1395397577887</v>
+        <v>117.6966935793843</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>117.6966935793843</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6966935793843</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4987,25 +4987,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T10" t="n">
-        <v>1413.467639269232</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="U10" t="n">
-        <v>1124.34930177307</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="V10" t="n">
-        <v>1124.34930177307</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="W10" t="n">
-        <v>834.9321317361096</v>
+        <v>861.2818647012352</v>
       </c>
       <c r="X10" t="n">
-        <v>606.9425808380922</v>
+        <v>633.2923138032179</v>
       </c>
       <c r="Y10" t="n">
-        <v>606.9425808380922</v>
+        <v>412.4997346596878</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,25 +5036,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5072,19 +5072,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>470.7064074803617</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>322.7933138979686</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5227,22 +5227,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1368.154262550759</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1920.063992790046</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>929.7309773356195</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5473,13 +5473,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1332.172021309389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5510,28 +5510,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5552,10 +5552,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>801.6918836311994</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C19" t="n">
-        <v>632.7557007032925</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>983.3403484614391</v>
+        <v>881.3796452313798</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>172.349019141113</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E22" t="n">
-        <v>197.0043242297712</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F22" t="n">
-        <v>197.0043242297712</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>197.0043242297712</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998286</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E25" t="n">
-        <v>194.8007783998286</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F25" t="n">
-        <v>194.8007783998286</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2297.830729215602</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2078.229264238543</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1789.154037582741</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1534.469549376854</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1245.052379339893</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1017.062828441876</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>796.270249298346</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,16 +6236,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P27" t="n">
         <v>2319.799627685893</v>
@@ -6358,52 +6358,52 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319335</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656828</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150035</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942666</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580125</v>
       </c>
       <c r="G28" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345487</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K28" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M28" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N28" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O28" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P28" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q28" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R28" t="n">
         <v>2596.781734931274</v>
@@ -6415,19 +6415,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V28" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y28" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6476,37 +6476,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273906</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>119.2902967703784</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969303</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
         <v>2319.799627685893</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150027</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
         <v>898.2659412311325</v>
@@ -6680,7 +6680,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6695,19 +6695,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,58 +6832,58 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E34" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.79828551875</v>
@@ -6901,7 +6901,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6923,7 +6923,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150024</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,7 +7093,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
         <v>483.8255460380728</v>
@@ -7108,25 +7108,25 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7135,7 +7135,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7163,10 +7163,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
@@ -7254,10 +7254,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M39" t="n">
         <v>680.0291294438176</v>
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
         <v>656.9646031150025</v>
@@ -7318,10 +7318,10 @@
         <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2497.745796000625</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656817</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7588,16 +7588,16 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838286</v>
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>175.8744207939072</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>175.8744207939072</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319331</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656825</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7840,10 +7840,10 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X46" t="n">
         <v>1280.33868158239</v>
@@ -8067,16 +8067,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>60.35797727397608</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>168.7434581780643</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780641</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>193.3273467878351</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,19 +8541,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>60.35797727397687</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>318.9402946845821</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>163.1046753239259</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>282.7336935664963</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>310.5469431875631</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22607,10 +22607,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22714,16 +22714,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1738299080985257</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22759,7 +22759,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-2.945315721635453e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>55.74112246243945</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>6.922421112517611</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>125.1956044930016</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>47.21554925516926</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>184.0188038644581</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>25.21666309130988</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>38.13892827624255</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,13 +24373,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>146.8157004124962</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>99.76050189075424</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>-1.025179953707445e-12</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>-7.389644451905042e-13</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1067020.979897884</v>
+        <v>1067020.979897885</v>
       </c>
     </row>
     <row r="3">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>81152.27790359154</v>
+        <v>81152.27790359157</v>
       </c>
       <c r="C2" t="n">
         <v>102630.2212330354</v>
@@ -26329,7 +26329,7 @@
         <v>100893.3249612508</v>
       </c>
       <c r="H2" t="n">
-        <v>100893.3249612507</v>
+        <v>100893.3249612508</v>
       </c>
       <c r="I2" t="n">
         <v>100893.3249612508</v>
@@ -26344,16 +26344,16 @@
         <v>102630.2212330355</v>
       </c>
       <c r="M2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="N2" t="n">
         <v>102630.2212330355</v>
       </c>
       <c r="O2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="P2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330354</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363181</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33838.50360469848</v>
+        <v>33838.50360469842</v>
       </c>
       <c r="C4" t="n">
         <v>131909.726831625</v>
@@ -26433,28 +26433,28 @@
         <v>6897.424496707374</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.42449670737</v>
+        <v>6897.424496707377</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="J4" t="n">
-        <v>14888.28375980083</v>
+        <v>14888.28375980084</v>
       </c>
       <c r="K4" t="n">
-        <v>14888.28375980079</v>
+        <v>14888.2837598009</v>
       </c>
       <c r="L4" t="n">
-        <v>14888.28375980083</v>
+        <v>14888.28375980086</v>
       </c>
       <c r="M4" t="n">
-        <v>14888.28375980082</v>
+        <v>14888.28375980085</v>
       </c>
       <c r="N4" t="n">
         <v>14888.28375980082</v>
       </c>
       <c r="O4" t="n">
-        <v>14888.28375980082</v>
+        <v>14888.28375980083</v>
       </c>
       <c r="P4" t="n">
         <v>14888.28375980083</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1160375.781716871</v>
+        <v>-1160805.34058346</v>
       </c>
       <c r="C6" t="n">
-        <v>-122217.2780384342</v>
+        <v>-122217.2780384343</v>
       </c>
       <c r="D6" t="n">
         <v>-122217.2780384343</v>
       </c>
       <c r="E6" t="n">
-        <v>-514612.0709839097</v>
+        <v>-514646.8089093453</v>
       </c>
       <c r="F6" t="n">
-        <v>-7126.629359363651</v>
+        <v>-7161.367284799388</v>
       </c>
       <c r="G6" t="n">
-        <v>-7126.629359363724</v>
+        <v>-7161.367284799417</v>
       </c>
       <c r="H6" t="n">
-        <v>-7126.629359363753</v>
+        <v>-7161.367284799417</v>
       </c>
       <c r="I6" t="n">
-        <v>-7126.62935936368</v>
+        <v>-7161.367284799402</v>
       </c>
       <c r="J6" t="n">
         <v>-202455.074184295</v>
       </c>
       <c r="K6" t="n">
-        <v>-15422.17838068063</v>
+        <v>-15422.17838068069</v>
       </c>
       <c r="L6" t="n">
-        <v>-15422.17838068074</v>
+        <v>-15422.17838068079</v>
       </c>
       <c r="M6" t="n">
-        <v>-148029.4721096075</v>
+        <v>-148029.4721096074</v>
       </c>
       <c r="N6" t="n">
         <v>-15422.17838068077</v>
       </c>
       <c r="O6" t="n">
-        <v>-34849.89637431254</v>
+        <v>-34849.89637431264</v>
       </c>
       <c r="P6" t="n">
-        <v>-15422.17838068075</v>
+        <v>-15422.17838068079</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175393</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175391</v>
-      </c>
-      <c r="C3" t="n">
-        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,10 +27382,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>191.5783662967571</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>99.19667650576548</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27537,13 +27537,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,7 +27552,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27585,16 +27585,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>74.32920489499713</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>140.3419152079418</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>137.3392797643489</v>
       </c>
     </row>
     <row r="6">
@@ -27780,16 +27780,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>218.5521780096013</v>
+        <v>56.90644429199844</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,13 +27853,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>290.7224784626072</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>58.57078417799221</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>55.27428354204531</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>39.01118726263321</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,10 +28059,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28561,70 +28561,70 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="29">
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="32">
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31847,22 +31847,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,34 +32072,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>416.4300581532626</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>500.7380235181012</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>444.2274915982891</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,10 +32549,10 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>206.1632388819608</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>615.038144437878</v>
+        <v>377.6350660745949</v>
       </c>
       <c r="N24" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>162.5000833330458</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>338.1920576279218</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>162.5000833330452</v>
+        <v>253.1045048722855</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>577.7447198439388</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162548</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>198.5607970756955</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33974,13 +33974,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -34150,7 +34150,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34205,22 +34205,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34229,7 +34229,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>158.8462560123214</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34387,7 +34387,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34442,16 +34442,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>207.939011051685</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,13 +34460,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>451.5550768668501</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>418.4229873015965</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215489</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35030,13 +35030,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>443.0068759113673</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35261,19 +35261,19 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>451.5550768668508</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35428,7 +35428,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35495,22 +35495,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>274.2960242312443</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>366.763616103771</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>302.0934576762708</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>472.9041105158597</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>23.94570355317166</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>196.0580237059035</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K28" t="n">
         <v>288.6172359016747</v>
@@ -36759,19 +36759,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P28" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986648</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,31 +36905,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>23.94570355317105</v>
+        <v>114.5501250924114</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36999,7 +36999,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
         <v>397.5465471980852</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>55.96455263125101</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,22 +37853,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37877,7 +37877,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>18.86448192629984</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>81.10138438501833</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,13 +38108,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
         <v>418.6266618111711</v>
